--- a/inst/extdata/spec.xlsx
+++ b/inst/extdata/spec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Data Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
   </si>
   <si>
     <t xml:space="preserve">STUDYID</t>
@@ -547,6 +550,9 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,13 +562,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -573,13 +582,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="F3" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +602,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -607,13 +622,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +642,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -641,13 +662,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +682,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -675,13 +702,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -692,13 +722,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -709,13 +742,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -726,13 +762,16 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -743,13 +782,16 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -768,46 +810,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/spec.xlsx
+++ b/inst/extdata/spec.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">STUDYID</t>
   </si>
   <si>
-    <t xml:space="preserve">study Identifier</t>
+    <t xml:space="preserve">Study Identifier</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>

--- a/inst/extdata/spec.xlsx
+++ b/inst/extdata/spec.xlsx
@@ -1,174 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdponcology-my.sharepoint.com/personal/steve_knapp_oncology_sumitomo-pharma_com/Documents/Documents/sdtmval/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_595D29D0A0D6985545C002315FE0126D77CF4B16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5997A8BF-4895-41C7-8C47-BFE2B859E4AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="XX" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Codelists" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="XX" sheetId="2" r:id="rId2"/>
+    <sheet name="ValueLevel" sheetId="3" r:id="rId3"/>
+    <sheet name="Codelists" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fake Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One record per test measurement per time point per visit per subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STUDYID, USUBJID, XXTESTCD, VISIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STUDYID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOMAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain Abbreviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USUBJID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique Subject Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXSEQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXTESTCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX Test Short Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXTEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX Test Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result or Finding in Original Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXBLFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baseline Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visit Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPOCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXDTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date/Time of Measurements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXDY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study Day of XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decoded Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Key Variables</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>Fake Domain</t>
+  </si>
+  <si>
+    <t>One record per test measurement per time point per visit per subject</t>
+  </si>
+  <si>
+    <t>STUDYID, USUBJID, XXTESTCD, VISIT</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>STUDYID</t>
+  </si>
+  <si>
+    <t>Study Identifier</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>DOMAIN</t>
+  </si>
+  <si>
+    <t>Domain Abbreviation</t>
+  </si>
+  <si>
+    <t>USUBJID</t>
+  </si>
+  <si>
+    <t>Unique Subject Identifier</t>
+  </si>
+  <si>
+    <t>XXSEQ</t>
+  </si>
+  <si>
+    <t>Sequence Number</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>XXTESTCD</t>
+  </si>
+  <si>
+    <t>XX Test Short Name</t>
+  </si>
+  <si>
+    <t>XXTEST</t>
+  </si>
+  <si>
+    <t>XX Test Name</t>
+  </si>
+  <si>
+    <t>XXORRES</t>
+  </si>
+  <si>
+    <t>Result or Finding in Original Units</t>
+  </si>
+  <si>
+    <t>XXBLFL</t>
+  </si>
+  <si>
+    <t>Baseline Flag</t>
+  </si>
+  <si>
+    <t>VISIT</t>
+  </si>
+  <si>
+    <t>Visit Name</t>
+  </si>
+  <si>
+    <t>EPOCH</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>XXDTC</t>
+  </si>
+  <si>
+    <t>Date/Time of Measurements</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>XXDY</t>
+  </si>
+  <si>
+    <t>Study Day of XX</t>
+  </si>
+  <si>
+    <t>Where Clause</t>
+  </si>
+  <si>
+    <t>Codelist</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Programming Notes</t>
+  </si>
+  <si>
+    <t>SUPPXX</t>
+  </si>
+  <si>
+    <t>QNAM</t>
+  </si>
+  <si>
+    <t>SUPPXX.QNAM.EQ.XXA</t>
+  </si>
+  <si>
+    <t>Description A</t>
+  </si>
+  <si>
+    <t>CRF</t>
+  </si>
+  <si>
+    <t>XX.XXA</t>
+  </si>
+  <si>
+    <t>SUPPXX.QNAM.EQ.XXB</t>
+  </si>
+  <si>
+    <t>Description B</t>
+  </si>
+  <si>
+    <t>XX.XXB</t>
+  </si>
+  <si>
+    <t>SUPPXX.QNAM.EQ.XXC</t>
+  </si>
+  <si>
+    <t>Description C</t>
+  </si>
+  <si>
+    <t>XX.XXC</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Decoded Value</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Test 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -204,6 +266,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -485,14 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -522,19 +593,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -554,8 +625,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -570,12 +641,12 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -590,12 +661,12 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>200</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -610,12 +681,12 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>200</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -630,12 +701,12 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -650,12 +721,12 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -670,12 +741,12 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>40</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -690,12 +761,12 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>200</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -710,12 +781,12 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -730,12 +801,12 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>200</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -750,12 +821,12 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>200</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -770,12 +841,12 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -790,70 +861,195 @@
       <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>